--- a/main/ig/StructureDefinition-CareSite.xlsx
+++ b/main/ig/StructureDefinition-CareSite.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T05:56:19+00:00</t>
+    <t>2024-07-19T13:38:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-CareSite.xlsx
+++ b/main/ig/StructureDefinition-CareSite.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T13:38:23+00:00</t>
+    <t>2024-07-29T14:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
